--- a/excel/TestModeSubmission.xlsx
+++ b/excel/TestModeSubmission.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Notes\AutoGraderProject\pysheetgrader-core\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakanerdogmus/dev/pysheetgrader-parent/pysheetgrader-core-main/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861DC342-2202-4E40-8433-D415C7169EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69317C9F-30EC-1C4A-9C84-50F732D0F5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="3888" windowWidth="21600" windowHeight="11772" firstSheet="3" activeTab="3" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
+    <workbookView xWindow="8460" yWindow="6180" windowWidth="26920" windowHeight="15500" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
   <sheets>
-    <sheet name="Relative Samples" sheetId="8" r:id="rId1"/>
-    <sheet name="SoftFormula Samples" sheetId="9" r:id="rId2"/>
-    <sheet name="Check Samples" sheetId="5" r:id="rId3"/>
-    <sheet name="Constant Samples" sheetId="1" r:id="rId4"/>
-    <sheet name="Formula Samples" sheetId="2" r:id="rId5"/>
+    <sheet name="RConstant" sheetId="1" r:id="rId1"/>
+    <sheet name="RFormula" sheetId="2" r:id="rId2"/>
+    <sheet name="RRelative" sheetId="11" r:id="rId3"/>
+    <sheet name="RCheck" sheetId="5" r:id="rId4"/>
+    <sheet name="SoftFormula Samples" sheetId="9" r:id="rId5"/>
     <sheet name="RelativeF Samples" sheetId="6" r:id="rId6"/>
     <sheet name="Test Case Samples" sheetId="7" r:id="rId7"/>
     <sheet name="Minimum Work" sheetId="10" r:id="rId8"/>
@@ -40,8 +40,1446 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ricardo Pramana Suranta</author>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{15D26E50-B4F6-784D-8791-1056CAE0CA28}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{B310C2FD-3B0D-A240-B98F-D186DCE100D2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: -1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> grading: negative</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{F650A65C-9ED5-1B4B-9956-36C9A6834EAD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1.5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{97797B61-2B91-7941-B677-10A0A8F7BA35}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: -1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> grading: negative
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="1" shapeId="0" xr:uid="{4784EA6D-1959-3D4C-A252-3E2044361B50}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="4"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="4"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> prereq:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  - B6
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  - B5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="1" shapeId="0" xr:uid="{0CCD90F6-B7A6-C44B-9263-661C065F6C49}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="4"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="4"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> prereq:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  - B5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  - C7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="1" shapeId="0" xr:uid="{9ECD14D1-BFAB-3D40-88C8-6B8C87014A2E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="4"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="4"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> prereq:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  - C6
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  - C8</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="1" shapeId="0" xr:uid="{E11E542B-CD0F-2A48-9324-2AEAF83933CD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="4"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="4"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{7034AD4A-38B5-AB45-A167-9531F425A66F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="4"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="4"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="1" shapeId="0" xr:uid="{276ABE6D-2CF9-FC40-A9E1-CDE5AE6C499E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="4"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="4"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="1" shapeId="0" xr:uid="{A49068F4-4B20-F040-8CF2-430D266847E3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="4"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="4"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{AB78C83F-B69E-CD46-88FD-24D3E20AC12C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 0
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{506CB596-477D-F04D-8B0B-118764A730AD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> prereq:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  - B18
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{2EDA8A0A-A565-3C4C-91C8-829036A8E3A2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1.5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> prereq:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  - B18
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  - B20
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  - B21
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{002334CD-E6AA-7E4A-8067-E1C559D4BAFB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1.5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alt_cells:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - B23
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{7BDFCD50-C0BB-1C4E-9316-45B0461B8AFE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1.5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alt_cells:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - C25
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{4D459859-5F66-CA41-96F9-7078495F375E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1.5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alt_cells:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - B23
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{DF77C746-44AC-5A4B-932E-4BBC2B0ED2B9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alt_cells:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - C25
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - C29
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{255E9EFD-7309-D84F-BD00-1A27BC3D2340}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1.5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alt_cells:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - C25
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - C23
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C31" authorId="1" shapeId="0" xr:uid="{5FC1C824-F62D-A349-8E6D-E0EF8050926C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="4"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="4"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{290D21F1-A830-1542-98CB-44A95DBAEB12}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alt_cells:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - B39</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{FE6F56B1-FB83-0B40-A85D-51F3EABD7E63}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alt_cells:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - B39
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - B40</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{D550E84B-CBAC-9C40-B2A9-BD3FB172A0B1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alt_cells:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - B39
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - B40
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - B41</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{F7D46B90-93DB-2841-A8AD-F26B92C47D8A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alt_cells:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - B39
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - B40
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - B41</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
   <si>
     <t>Sample Data</t>
   </si>
@@ -94,9 +1532,6 @@
     <t>&gt; This cell will also be considered as right, since the extra algebraic calculation doesn't happen inside custom function - allowing it to be simplified.</t>
   </si>
   <si>
-    <t>not_ok</t>
-  </si>
-  <si>
     <t>&gt; This will be considered as incorrect due to the different output.</t>
   </si>
   <si>
@@ -127,21 +1562,6 @@
     <t>No Mistake</t>
   </si>
   <si>
-    <t>Negative Grade True</t>
-  </si>
-  <si>
-    <t>Negative Grade False</t>
-  </si>
-  <si>
-    <t>One More</t>
-  </si>
-  <si>
-    <t>pre-req wrong</t>
-  </si>
-  <si>
-    <t>pre-req right</t>
-  </si>
-  <si>
     <t>&gt; Correct</t>
   </si>
   <si>
@@ -154,23 +1574,106 @@
     <t>Deliberately wrong</t>
   </si>
   <si>
-    <t>alt cell(given in key) correct</t>
-  </si>
-  <si>
-    <t>Negative (Penalty)</t>
-  </si>
-  <si>
-    <t>Negative but correct, hence zero</t>
-  </si>
-  <si>
-    <t>&gt; This cell will be considered correct since even though ROUNDUP is a custom formula, and it multiplies against 0.01 instead of doing what the key does: dividing against 100. But with SymPy similiarity check, it succeeds</t>
+    <t>Correct in Sub</t>
+  </si>
+  <si>
+    <t>Incorrect in Sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Century </t>
+  </si>
+  <si>
+    <t>Inch Alt Cell</t>
+  </si>
+  <si>
+    <t>Input range</t>
+  </si>
+  <si>
+    <t>A boolean</t>
+  </si>
+  <si>
+    <t>Sum of range</t>
+  </si>
+  <si>
+    <t>Arithmetic expression</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Max function</t>
+  </si>
+  <si>
+    <t>Addition</t>
+  </si>
+  <si>
+    <t>Incorrect/Different in Sub</t>
+  </si>
+  <si>
+    <t>Max of years and some</t>
+  </si>
+  <si>
+    <t>Sum of years</t>
+  </si>
+  <si>
+    <t>Sum of centuries</t>
+  </si>
+  <si>
+    <t>Incorrect/Different  in Sub</t>
+  </si>
+  <si>
+    <t>Century built-in formula</t>
+  </si>
+  <si>
+    <t>Simple Alt Cells Tests</t>
+  </si>
+  <si>
+    <t>Data1</t>
+  </si>
+  <si>
+    <t>Data2</t>
+  </si>
+  <si>
+    <t>Original2</t>
+  </si>
+  <si>
+    <t>Original3</t>
+  </si>
+  <si>
+    <t>Original1</t>
+  </si>
+  <si>
+    <t>Original4</t>
+  </si>
+  <si>
+    <t>matches orig cell formula in key</t>
+  </si>
+  <si>
+    <t>matches alt cell formula in key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matches one alt cell </t>
+  </si>
+  <si>
+    <t>no matches</t>
+  </si>
+  <si>
+    <t>matches alt cell</t>
+  </si>
+  <si>
+    <t>To reveal the double-score bug!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +1687,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,9 +1735,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,118 +2073,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B156675-45F5-4D88-8EF2-C0EA21B021CF}">
-  <dimension ref="A2:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF32E925-6E02-734C-B233-A410012DB67F}">
+  <dimension ref="A4:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>3003</v>
-      </c>
-      <c r="B2">
-        <v>1001</v>
-      </c>
-      <c r="C2">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>4005</v>
-      </c>
-      <c r="B3">
-        <v>2002</v>
-      </c>
-      <c r="C3">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3005</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <f>B5/10 + 2</f>
+        <v>204</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <f>B6 /10 + 4</f>
+        <v>206</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <f>ROUNDUP(B5 /100, 0)</f>
+        <v>21</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <f xml:space="preserve">  ROUNDUP(B5 /100, 0) + 1</f>
+        <v>22</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
         <v>1000</v>
       </c>
-      <c r="C4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>8888</v>
-      </c>
-      <c r="B5">
-        <v>1000</v>
-      </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3000</v>
-      </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
-      <c r="C6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3000</v>
-      </c>
-      <c r="B7">
-        <v>1000</v>
-      </c>
-      <c r="C7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3000</v>
-      </c>
-      <c r="B8">
-        <v>1000</v>
-      </c>
-      <c r="C8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2000</v>
-      </c>
-      <c r="B9">
-        <v>1000</v>
-      </c>
-      <c r="C9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2000</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>1000</v>
-      </c>
-      <c r="D10">
-        <v>2000</v>
-      </c>
-      <c r="F10">
-        <v>3000</v>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <f xml:space="preserve"> B12 / 1000</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <f>B12*3.28084</f>
+        <v>3280.84</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <f>B12*39.3701</f>
+        <v>39370.1</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4">
+        <v>39370.1</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4">
+        <f xml:space="preserve"> B12*39.37</f>
+        <v>39370</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4">
+        <f>39 + 1</f>
+        <v>40</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4">
+        <v>39370.1</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="5">
+        <f>B12*39.3701+0.1</f>
+        <v>39370.199999999997</v>
       </c>
     </row>
   </sheetData>
@@ -644,6 +2275,677 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54FCC73-D8ED-7C43-AC38-2299ABF8D40E}">
+  <dimension ref="A4:D42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <f>2019 + 1</f>
+        <v>2020</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <f xml:space="preserve"> 4030 + 2 + 8</f>
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <f xml:space="preserve"> 2020</f>
+        <v>2020</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <f>C6/2</f>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <f>B7/10 - 1</f>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <f>C6*0.01</f>
+        <v>40.4</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <f>C6*0.01 + 1</f>
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <f>C6/100</f>
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <f>MOD(B5 - 100 + 100, 50*2) + 20/20</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2">
+        <f>2*C6 + MAX(B5:B7) -  C6</f>
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2">
+        <f>2*SUM(B5:B7) + C6 - B5 - B6 - B7</f>
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
+        <f>40.4</f>
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <f xml:space="preserve"> 900 + 100</f>
+        <v>1000</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
+        <f xml:space="preserve"> C19/1000</f>
+        <v>2</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2">
+        <f>C19*3.28084</f>
+        <v>6561.68</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2">
+        <f>C19*39.3701</f>
+        <v>78740.2</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="4">
+        <f>39.37*C19</f>
+        <v>78740</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4">
+        <f xml:space="preserve"> B18*40</f>
+        <v>40000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4">
+        <f>C19*39.37</f>
+        <v>78740</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="4">
+        <f>B18*35.8</f>
+        <v>35800</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4">
+        <f>C19*38</f>
+        <v>76000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="2">
+        <f>ROUNDUP(C6*0.01, 0)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36">
+        <f>B34-B35</f>
+        <v>-10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37">
+        <f>B35/B34</f>
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38">
+        <f>2*B34 + B35</f>
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42">
+        <f>-B35+B34</f>
+        <v>-10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AECA24-FEBB-0348-A48B-8E513640C760}">
+  <dimension ref="A4:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <f>MAX(C5:C9)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <f>7</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <f>C6 + C7 + C9</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="b">
+        <f>B6 &gt; B5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="b">
+        <f>B6 + B7 &gt; B5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="b">
+        <f>C8 + C9 &gt; C5 - C6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <f>C5^C6 - C7/C8</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <f>B5^B7 - B8/9 - 0.05</f>
+        <v>1023.838888888889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <f>B5^B7 - B8 + 0</f>
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="8">
+        <f>B6^B8 - B9/B6</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <f>SUM(C5:C9) - 0.5</f>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE26CD8-B5F9-2843-9F16-9C9C6D979FA1}">
+  <dimension ref="A4:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <f>MAX(B5:B9)</f>
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <f>MAX(C5:C9)</f>
+        <v>10.5</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B5:B9)</f>
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <f>SUM(C5:C9)</f>
+        <v>23.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45F00BE-C631-442C-8DA0-AE0749BE8D75}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -651,12 +2953,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -672,7 +2974,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -683,7 +2985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -692,10 +2994,10 @@
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -703,7 +3005,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -712,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -724,7 +3026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -736,7 +3038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -748,7 +3050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -760,15 +3062,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
         <v>2243</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -778,388 +3080,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
   </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE26CD8-B5F9-2843-9F16-9C9C6D979FA1}">
-  <dimension ref="B2:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF32E925-6E02-734C-B233-A410012DB67F}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.296875" customWidth="1"/>
-    <col min="2" max="2" width="13.796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>3281</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>39370</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
-        <v>2020</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>205</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54FCC73-D8ED-7C43-AC38-2299ABF8D40E}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>4040</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <f xml:space="preserve"> ROUNDUP(B2 * 0.01, 0)</f>
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f xml:space="preserve"> B6 * 0.001</f>
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f xml:space="preserve"> B6 * 3.28</f>
-        <v>3280</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f>B6*39.37</f>
-        <v>39370</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <f>B2/1000</f>
-        <v>4.04</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <f>B2+B3+B4</f>
-        <v>4281</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <f>B2+B3+B4+4-2</f>
-        <v>4283</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15">
-        <f>B2/5</f>
-        <v>808</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16">
-        <f>B2/8</f>
-        <v>505</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1171,9 +3091,9 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>E2-F2</f>
         <v>3003</v>
@@ -1191,7 +3111,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>E3+F3</f>
         <v>4005</v>
@@ -1209,7 +3129,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>E4+F4</f>
         <v>3005</v>
@@ -1227,7 +3147,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>E5+F5</f>
         <v>8888</v>
@@ -1245,7 +3165,7 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>E6+F6</f>
         <v>3005</v>
@@ -1263,7 +3183,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>E7+F7</f>
         <v>3005</v>
@@ -1281,7 +3201,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3005</v>
       </c>
@@ -1298,7 +3218,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>E9+F9</f>
         <v>4005</v>
@@ -1329,13 +3249,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.796875" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1351,7 +3271,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1362,15 +3282,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1379,10 +3299,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1390,7 +3310,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1399,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1408,10 +3328,10 @@
         <v>3281</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1420,10 +3340,10 @@
         <v>39370</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1432,7 +3352,7 @@
         <v>39370</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1448,13 +3368,13 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.296875" customWidth="1"/>
-    <col min="2" max="2" width="13.796875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1470,10 +3390,10 @@
         <v>2020</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1484,7 +3404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1492,10 +3412,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1503,7 +3423,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1511,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1519,10 +3439,10 @@
         <v>3281</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1530,20 +3450,20 @@
         <v>39370</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>205</v>

--- a/excel/TestModeSubmission.xlsx
+++ b/excel/TestModeSubmission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakanerdogmus/dev/pysheetgrader-parent/pysheetgrader-core-main/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader-core/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69317C9F-30EC-1C4A-9C84-50F732D0F5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A289A512-F9A6-7A4C-BF5C-5A202B90C4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="6180" windowWidth="26920" windowHeight="15500" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
+    <workbookView xWindow="14160" yWindow="3520" windowWidth="26920" windowHeight="15500" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
   <sheets>
     <sheet name="RConstant" sheetId="1" r:id="rId1"/>
@@ -1479,7 +1479,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="61">
   <si>
     <t>Sample Data</t>
   </si>
@@ -2076,7 +2076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF32E925-6E02-734C-B233-A410012DB67F}">
   <dimension ref="A4:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -2614,10 +2614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AECA24-FEBB-0348-A48B-8E513640C760}">
-  <dimension ref="A4:C27"/>
+  <dimension ref="A4:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A29" sqref="A29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2824,6 +2824,15 @@
         <v>24</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <f>SUM(C5:C9) - 0.5</f>
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A5:A9"/>
@@ -2834,10 +2843,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE26CD8-B5F9-2843-9F16-9C9C6D979FA1}">
-  <dimension ref="A4:E11"/>
+  <dimension ref="A4:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2933,6 +2942,15 @@
         <v>24</v>
       </c>
       <c r="C11">
+        <f>SUM(C5:C9)</f>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
         <f>SUM(C5:C9)</f>
         <v>23.5</v>
       </c>

--- a/excel/TestModeSubmission.xlsx
+++ b/excel/TestModeSubmission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader-core/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A289A512-F9A6-7A4C-BF5C-5A202B90C4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E182A7B0-FC19-F64B-88FF-64A241A173C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="3520" windowWidth="26920" windowHeight="15500" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
+    <workbookView xWindow="6680" yWindow="3520" windowWidth="26920" windowHeight="15500" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
   <sheets>
     <sheet name="RConstant" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Test Case Samples" sheetId="7" r:id="rId7"/>
     <sheet name="Minimum Work" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1479,7 +1479,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="61">
   <si>
     <t>Sample Data</t>
   </si>
@@ -2074,10 +2074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF32E925-6E02-734C-B233-A410012DB67F}">
-  <dimension ref="A4:F22"/>
+  <dimension ref="A4:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2267,6 +2267,14 @@
       <c r="B22" s="5">
         <f>B12*39.3701+0.1</f>
         <v>39370.199999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4">
+        <v>39370.1</v>
       </c>
     </row>
   </sheetData>

--- a/excel/TestModeSubmission.xlsx
+++ b/excel/TestModeSubmission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader-core/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A289A512-F9A6-7A4C-BF5C-5A202B90C4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FCA48B-DD56-0D4D-A471-D9D580E01E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="3520" windowWidth="26920" windowHeight="15500" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
+    <workbookView xWindow="6680" yWindow="3520" windowWidth="26920" windowHeight="15500" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
   <sheets>
     <sheet name="RConstant" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Test Case Samples" sheetId="7" r:id="rId7"/>
     <sheet name="Minimum Work" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2074,7 +2074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF32E925-6E02-734C-B233-A410012DB67F}">
-  <dimension ref="A4:F22"/>
+  <dimension ref="A4:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
@@ -2267,6 +2267,11 @@
       <c r="B22" s="5">
         <f>B12*39.3701+0.1</f>
         <v>39370.199999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel/TestModeSubmission.xlsx
+++ b/excel/TestModeSubmission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader-core/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E182A7B0-FC19-F64B-88FF-64A241A173C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE81ED5B-0F55-CF45-9EBB-EE1880474909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="3520" windowWidth="26920" windowHeight="15500" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
+    <workbookView xWindow="6680" yWindow="3520" windowWidth="26920" windowHeight="15500" activeTab="3" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
   <sheets>
     <sheet name="RConstant" sheetId="1" r:id="rId1"/>
@@ -2076,7 +2076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF32E925-6E02-734C-B233-A410012DB67F}">
   <dimension ref="A4:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -2853,8 +2853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE26CD8-B5F9-2843-9F16-9C9C6D979FA1}">
   <dimension ref="A4:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2952,6 +2952,11 @@
       <c r="C11">
         <f>SUM(C5:C9)</f>
         <v>23.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">

--- a/excel/TestModeSubmission.xlsx
+++ b/excel/TestModeSubmission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE81ED5B-0F55-CF45-9EBB-EE1880474909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF8833B-E58A-A546-A08B-04DB6579A09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="3520" windowWidth="26920" windowHeight="15500" activeTab="3" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
+    <workbookView xWindow="6680" yWindow="3520" windowWidth="26920" windowHeight="15500" activeTab="2" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
   <sheets>
     <sheet name="RConstant" sheetId="1" r:id="rId1"/>
@@ -2622,10 +2622,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AECA24-FEBB-0348-A48B-8E513640C760}">
-  <dimension ref="A4:C29"/>
+  <dimension ref="A4:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2841,6 +2841,12 @@
         <v>24</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A5:A9"/>
@@ -2853,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE26CD8-B5F9-2843-9F16-9C9C6D979FA1}">
   <dimension ref="A4:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/excel/TestModeSubmission.xlsx
+++ b/excel/TestModeSubmission.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF8833B-E58A-A546-A08B-04DB6579A09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAF1CE3-8B08-FF4A-8C13-7C7AFFCA1D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="3520" windowWidth="26920" windowHeight="15500" activeTab="2" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
+    <workbookView xWindow="6680" yWindow="3520" windowWidth="26920" windowHeight="15500" activeTab="1" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
   <sheets>
     <sheet name="RConstant" sheetId="1" r:id="rId1"/>
-    <sheet name="RFormula" sheetId="2" r:id="rId2"/>
-    <sheet name="RRelative" sheetId="11" r:id="rId3"/>
-    <sheet name="RCheck" sheetId="5" r:id="rId4"/>
-    <sheet name="SoftFormula Samples" sheetId="9" r:id="rId5"/>
-    <sheet name="RelativeF Samples" sheetId="6" r:id="rId6"/>
-    <sheet name="Test Case Samples" sheetId="7" r:id="rId7"/>
-    <sheet name="Minimum Work" sheetId="10" r:id="rId8"/>
+    <sheet name="Assertion" sheetId="12" r:id="rId2"/>
+    <sheet name="RFormula" sheetId="2" r:id="rId3"/>
+    <sheet name="RRelative" sheetId="11" r:id="rId4"/>
+    <sheet name="RCheck" sheetId="5" r:id="rId5"/>
+    <sheet name="SoftFormula Samples" sheetId="9" r:id="rId6"/>
+    <sheet name="RelativeF Samples" sheetId="6" r:id="rId7"/>
+    <sheet name="Test Case Samples" sheetId="7" r:id="rId8"/>
+    <sheet name="Minimum Work" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1479,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="62">
   <si>
     <t>Sample Data</t>
   </si>
@@ -1662,6 +1663,9 @@
   </si>
   <si>
     <t>To reveal the double-score bug!</t>
+  </si>
+  <si>
+    <t>SOMETHING</t>
   </si>
 </sst>
 </file>
@@ -1735,7 +1739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1756,6 +1760,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2077,7 +2086,7 @@
   <dimension ref="A4:F23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2283,6 +2292,277 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0AACC9-2562-4C47-8692-C2AE00C5483E}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3">
+        <v>204</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="3">
+        <v>206</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3280.84</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3">
+        <v>39370.1</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="11">
+        <v>39370.1</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11">
+        <v>39370</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11">
+        <v>40</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="11">
+        <v>39370.1</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="12">
+        <v>39370.199999999997</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="11">
+        <v>39370.1</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54FCC73-D8ED-7C43-AC38-2299ABF8D40E}">
   <dimension ref="A4:D42"/>
   <sheetViews>
@@ -2620,11 +2900,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AECA24-FEBB-0348-A48B-8E513640C760}">
   <dimension ref="A4:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -2647,7 +2927,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B5">
@@ -2658,7 +2938,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="13"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -2667,7 +2947,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="13"/>
       <c r="B7">
         <v>10</v>
       </c>
@@ -2676,7 +2956,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="13"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -2685,7 +2965,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="13"/>
       <c r="B9">
         <v>6</v>
       </c>
@@ -2855,7 +3135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE26CD8-B5F9-2843-9F16-9C9C6D979FA1}">
   <dimension ref="A4:E30"/>
   <sheetViews>
@@ -2887,7 +3167,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B5">
@@ -2898,7 +3178,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="13"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -2907,7 +3187,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="13"/>
       <c r="B7">
         <v>10</v>
       </c>
@@ -2916,7 +3196,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="13"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -2925,7 +3205,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="13"/>
       <c r="B9">
         <v>6</v>
       </c>
@@ -2982,7 +3262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45F00BE-C631-442C-8DA0-AE0749BE8D75}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -3120,7 +3400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA248177-445A-4F41-8DB3-B508896FF9D2}">
   <dimension ref="A2:F9"/>
   <sheetViews>
@@ -3278,7 +3558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F66203-56DE-4670-B232-2142CFFE2447}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -3397,7 +3677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2940D7-F028-41AF-9DCC-CB6DDE1DE7F0}">
   <dimension ref="A1:C12"/>
   <sheetViews>

--- a/excel/TestModeSubmission.xlsx
+++ b/excel/TestModeSubmission.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAF1CE3-8B08-FF4A-8C13-7C7AFFCA1D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1EB78C-2179-344C-BE40-78C869F39FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="3520" windowWidth="26920" windowHeight="15500" activeTab="1" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
+    <workbookView xWindow="6680" yWindow="3520" windowWidth="26920" windowHeight="15500" activeTab="2" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
   <sheets>
     <sheet name="RConstant" sheetId="1" r:id="rId1"/>
     <sheet name="Assertion" sheetId="12" r:id="rId2"/>
-    <sheet name="RFormula" sheetId="2" r:id="rId3"/>
-    <sheet name="RRelative" sheetId="11" r:id="rId4"/>
-    <sheet name="RCheck" sheetId="5" r:id="rId5"/>
-    <sheet name="SoftFormula Samples" sheetId="9" r:id="rId6"/>
-    <sheet name="RelativeF Samples" sheetId="6" r:id="rId7"/>
-    <sheet name="Test Case Samples" sheetId="7" r:id="rId8"/>
-    <sheet name="Minimum Work" sheetId="10" r:id="rId9"/>
+    <sheet name="XLFormula" sheetId="14" r:id="rId3"/>
+    <sheet name="Manual" sheetId="13" r:id="rId4"/>
+    <sheet name="RFormula" sheetId="2" r:id="rId5"/>
+    <sheet name="RRelative" sheetId="11" r:id="rId6"/>
+    <sheet name="RCheck" sheetId="5" r:id="rId7"/>
+    <sheet name="SoftFormula Samples" sheetId="9" r:id="rId8"/>
+    <sheet name="RelativeF Samples" sheetId="6" r:id="rId9"/>
+    <sheet name="Test Case Samples" sheetId="7" r:id="rId10"/>
+    <sheet name="Minimum Work" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1480,7 +1482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
   <si>
     <t>Sample Data</t>
   </si>
@@ -1666,6 +1668,9 @@
   </si>
   <si>
     <t>SOMETHING</t>
+  </si>
+  <si>
+    <t>FOO</t>
   </si>
 </sst>
 </file>
@@ -2291,12 +2296,245 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F66203-56DE-4670-B232-2142CFFE2447}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f xml:space="preserve"> ROUNDUP(B2 * 0.01, B4 )</f>
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f xml:space="preserve"> B7 * 0.001</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f xml:space="preserve"> B7 * 3.281</f>
+        <v>3281</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f>B7*39.37</f>
+        <v>39370</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <f>B7*39.37</f>
+        <v>39370</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2940D7-F028-41AF-9DCC-CB6DDE1DE7F0}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3281</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>39370</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0AACC9-2562-4C47-8692-C2AE00C5483E}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2563,6 +2801,261 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6888CEB4-B99C-944C-800F-960A384B9D53}">
+  <dimension ref="A4:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <f>MAX(C5:C9)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <f>7</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <f>C6 + C7 + C9</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="b">
+        <f>B6 &gt; B5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="b">
+        <f>B6 + B7 &gt; B5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="b">
+        <f>C8 + C9 &gt; C5 - C6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <f>C5^C6 - C7/C8</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <f>B5^B7 - B8/9 - 0.05</f>
+        <v>1023.838888888889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <f>B5^B7 - B8 + 0</f>
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="8">
+        <f>B6^B8 - B9/B6</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <f>SUM(C5:C9) - 0.5</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <f>SUM(C5:C9) - 0.5</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8154389-4708-EC4C-82F1-FF9B784A1B01}">
+  <dimension ref="B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54FCC73-D8ED-7C43-AC38-2299ABF8D40E}">
   <dimension ref="A4:D42"/>
   <sheetViews>
@@ -2900,12 +3393,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AECA24-FEBB-0348-A48B-8E513640C760}">
   <dimension ref="A4:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3135,7 +3628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE26CD8-B5F9-2843-9F16-9C9C6D979FA1}">
   <dimension ref="A4:E30"/>
   <sheetViews>
@@ -3262,7 +3755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45F00BE-C631-442C-8DA0-AE0749BE8D75}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -3400,7 +3893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA248177-445A-4F41-8DB3-B508896FF9D2}">
   <dimension ref="A2:F9"/>
   <sheetViews>
@@ -3556,237 +4049,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F66203-56DE-4670-B232-2142CFFE2447}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>202</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f xml:space="preserve"> ROUNDUP(B2 * 0.01, B4 )</f>
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <f xml:space="preserve"> B7 * 0.001</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <f xml:space="preserve"> B7 * 3.281</f>
-        <v>3281</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <f>B7*39.37</f>
-        <v>39370</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <f>B7*39.37</f>
-        <v>39370</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2940D7-F028-41AF-9DCC-CB6DDE1DE7F0}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>3281</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>39370</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12">
-        <v>205</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/excel/TestModeSubmission.xlsx
+++ b/excel/TestModeSubmission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1EB78C-2179-344C-BE40-78C869F39FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9FCD38-876D-F942-81FE-3E2F86AB9761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6680" yWindow="3520" windowWidth="26920" windowHeight="15500" activeTab="2" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
@@ -2802,10 +2802,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6888CEB4-B99C-944C-800F-960A384B9D53}">
-  <dimension ref="A4:C32"/>
+  <dimension ref="A4:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2815,7 +2815,7 @@
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>35</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6">
         <v>5</v>
@@ -2845,8 +2845,11 @@
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7">
         <v>10</v>
@@ -2855,7 +2858,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8">
         <v>1</v>
@@ -2864,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9">
         <v>6</v>
@@ -2873,7 +2876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2890,7 +2893,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2899,7 +2902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2908,7 +2911,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3025,6 +3028,21 @@
       <c r="B32" t="b">
         <f>TRUE</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/excel/TestModeSubmission.xlsx
+++ b/excel/TestModeSubmission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9FCD38-876D-F942-81FE-3E2F86AB9761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CF99F3-EFC6-564F-BBD2-1630ED276E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6680" yWindow="3520" windowWidth="26920" windowHeight="15500" activeTab="2" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
@@ -2802,10 +2802,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6888CEB4-B99C-944C-800F-960A384B9D53}">
-  <dimension ref="A4:D35"/>
+  <dimension ref="A4:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3043,6 +3043,56 @@
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel/TestModeSubmission.xlsx
+++ b/excel/TestModeSubmission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CF99F3-EFC6-564F-BBD2-1630ED276E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67673BA5-DE2E-D44A-885F-1B8227CD9A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6680" yWindow="3520" windowWidth="26920" windowHeight="15500" activeTab="2" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
@@ -2802,10 +2802,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6888CEB4-B99C-944C-800F-960A384B9D53}">
-  <dimension ref="A4:D45"/>
+  <dimension ref="A4:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3093,6 +3093,66 @@
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
